--- a/data/users.xlsx
+++ b/data/users.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Python\project_file_system\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VSCode\python\project_file_system\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DAF9496-49F6-47F0-A3CE-9A23B72E2A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DA9CF3-20C9-4DC3-A741-725623437E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="54">
   <si>
     <t>用户名</t>
   </si>
@@ -219,6 +219,10 @@
   </si>
   <si>
     <t>boss</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售总监</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -593,7 +597,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -654,7 +658,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
